--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T19:07:59-05:00</t>
+    <t>2025-06-24T13:00:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:00:09-05:00</t>
+    <t>2025-06-24T13:13:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:13:18-05:00</t>
+    <t>2025-06-24T13:15:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:15:27-05:00</t>
+    <t>2025-06-24T13:30:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:30:24-05:00</t>
+    <t>2025-06-24T13:47:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:47:41-05:00</t>
+    <t>2025-06-25T12:47:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T12:47:47-05:00</t>
+    <t>2025-07-29T13:31:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1524,17 +1524,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.98046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1543,25 +1543,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="34.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.32421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="50.1875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="225.109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.78515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="234.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T15:50:11-05:00</t>
+    <t>2025-08-04T22:10:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://hl7.org/Special/committees/pafm)</t>
+    <t>null (http://www.hl7.org/Special/committees/pafm)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -487,6 +487,191 @@
     <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO”(Serial Number) and the system left empty.</t>
   </si>
   <si>
+    <t>Device.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Device.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Device.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Device.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Device.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Device.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Device.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Device.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>Device.definition</t>
   </si>
   <si>
@@ -522,29 +707,7 @@
     <t>Device.udiCarrier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Device.udiCarrier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Device.udiCarrier.modifierExtension</t>
@@ -690,9 +853,6 @@
     <t>Supports a way to distinguish hand entered from machine read data.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes to identify how UDI data was entered.</t>
   </si>
   <si>
@@ -729,17 +889,10 @@
     <t>Device.statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>online | paused | standby | offline | not-ready | transduc-discon | hw-discon | off</t>
   </si>
   <si>
     <t>Reason for the dtatus of the Device availability.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The availability status reason of the device.</t>
@@ -1082,10 +1235,6 @@
   </si>
   <si>
     <t>Device.owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization responsible for device</t>
@@ -1515,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,17 +1673,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.98046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1543,25 +1692,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="34.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.32421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="50.1875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="225.109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="234.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2876,7 +3025,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2888,10 +3037,10 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
@@ -2902,14 +3051,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2925,19 +3074,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2975,19 +3124,19 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2999,13 +3148,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3013,10 +3162,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3033,22 +3182,26 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3072,13 +3225,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3096,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3108,10 +3261,10 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -3122,21 +3275,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3145,21 +3298,23 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3183,13 +3338,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3207,22 +3362,22 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -3233,45 +3388,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3284,7 +3439,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3320,22 +3475,22 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -3346,24 +3501,24 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
@@ -3372,15 +3527,17 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3393,7 +3550,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3429,7 +3586,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3444,25 +3601,25 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3478,16 +3635,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3538,7 +3695,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3553,21 +3710,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3587,21 +3744,21 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3649,7 +3806,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3664,7 +3821,7 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
@@ -3675,14 +3832,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3698,20 +3855,18 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3760,7 +3915,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3775,32 +3930,32 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3812,16 +3967,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3871,13 +4026,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3886,21 +4041,21 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3923,18 +4078,16 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3958,13 +4111,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -3982,7 +4135,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3994,10 +4147,10 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -4008,42 +4161,42 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4069,13 +4222,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4093,25 +4246,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4119,14 +4272,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4139,22 +4292,26 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4178,31 +4335,31 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4214,13 +4371,13 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4228,14 +4385,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4251,20 +4408,18 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4313,7 +4468,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4328,25 +4483,25 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4365,7 +4520,7 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>237</v>
@@ -4422,7 +4577,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4440,18 +4595,18 @@
         <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4474,7 +4629,7 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>242</v>
@@ -4483,7 +4638,9 @@
         <v>243</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4531,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4546,13 +4703,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4564,7 +4721,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4580,18 +4737,20 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4655,25 +4814,25 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4689,18 +4848,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4749,7 +4910,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4764,21 +4925,21 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4801,18 +4962,18 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4836,13 +4997,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -4860,7 +5021,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4875,10 +5036,10 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4886,10 +5047,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4900,27 +5061,29 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4945,13 +5108,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -4969,13 +5132,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -4984,10 +5147,10 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4995,10 +5158,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5009,7 +5172,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5021,13 +5184,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5054,13 +5217,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5078,25 +5241,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5104,21 +5267,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5130,16 +5293,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5189,72 +5352,68 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5302,44 +5461,44 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5354,13 +5513,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5411,10 +5570,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
@@ -5426,21 +5585,21 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5448,7 +5607,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5463,13 +5622,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5496,13 +5655,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5520,10 +5679,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5535,21 +5694,21 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5572,13 +5731,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5629,7 +5788,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5644,21 +5803,21 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5681,16 +5840,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5740,7 +5899,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5755,10 +5914,10 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5766,10 +5925,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5780,7 +5939,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5792,13 +5951,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5825,13 +5984,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -5849,13 +6008,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -5875,10 +6034,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5889,7 +6048,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -5901,13 +6060,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5958,22 +6117,22 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
@@ -5984,21 +6143,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6010,15 +6169,17 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6067,22 +6228,22 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
@@ -6093,14 +6254,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6113,24 +6274,26 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6178,7 +6341,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6193,7 +6356,7 @@
         <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6204,46 +6367,42 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6291,22 +6450,22 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6317,14 +6476,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6343,13 +6502,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6376,13 +6535,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6400,7 +6559,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6415,10 +6574,10 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6426,10 +6585,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6452,13 +6611,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6509,7 +6668,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6524,10 +6683,10 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6535,10 +6694,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6549,7 +6708,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6561,15 +6720,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6618,13 +6779,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -6633,10 +6794,10 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6644,10 +6805,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6670,13 +6831,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6703,13 +6864,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -6727,7 +6888,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6739,10 +6900,10 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -6753,14 +6914,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6779,17 +6940,15 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -6838,7 +6997,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -6850,10 +7009,10 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -6864,46 +7023,42 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -6951,22 +7106,22 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -6977,21 +7132,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7003,15 +7158,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7060,22 +7217,22 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -7086,42 +7243,46 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7169,25 +7330,25 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7195,14 +7356,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7221,13 +7382,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7278,7 +7439,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>86</v>
@@ -7304,10 +7465,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7318,7 +7479,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7330,13 +7491,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7387,13 +7548,13 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
@@ -7405,7 +7566,7 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7413,10 +7574,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7427,7 +7588,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7439,13 +7600,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>163</v>
+        <v>351</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7496,22 +7657,22 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -7522,21 +7683,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7548,17 +7709,15 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7607,22 +7766,22 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -7633,14 +7792,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7653,26 +7812,24 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -7720,7 +7877,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -7735,7 +7892,7 @@
         <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -7746,42 +7903,46 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -7829,22 +7990,22 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -7855,21 +8016,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -7881,13 +8042,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>325</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7938,13 +8099,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -7964,10 +8125,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7978,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -7990,13 +8151,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8047,13 +8208,13 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -8065,7 +8226,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8073,10 +8234,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8084,7 +8245,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>86</v>
@@ -8099,18 +8260,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8158,10 +8317,10 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>86</v>
@@ -8173,10 +8332,10 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8184,10 +8343,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8198,7 +8357,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8210,13 +8369,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8267,13 +8426,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -8282,10 +8441,10 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8293,10 +8452,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8307,7 +8466,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8319,17 +8478,15 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>345</v>
+        <v>152</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8378,25 +8535,25 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>344</v>
+        <v>155</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>349</v>
+        <v>156</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8404,24 +8561,24 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -8430,18 +8587,18 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>351</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -8489,25 +8646,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>350</v>
+        <v>162</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>355</v>
+        <v>156</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -8515,44 +8672,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>359</v>
+        <v>226</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -8600,25 +8759,25 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>361</v>
+        <v>129</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -8626,10 +8785,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8637,10 +8796,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -8652,13 +8811,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>363</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8709,13 +8868,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -8724,7 +8883,7 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -8735,10 +8894,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8758,16 +8917,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>223</v>
+        <v>375</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8818,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8992,7 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
@@ -8844,10 +9003,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8858,7 +9017,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -8870,13 +9029,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>371</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8927,13 +9086,13 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
@@ -8951,8 +9110,888 @@
         <v>78</v>
       </c>
     </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM67">
+  <autoFilter ref="A1:AM75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8962,7 +10001,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-04T22:10:47-05:00</t>
+    <t>2025-08-05T14:07:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1673,17 +1673,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.41796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.98046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1692,25 +1692,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="42.97265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.32421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="89.40625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="234.19140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="225.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T14:07:30-05:00</t>
+    <t>2025-08-05T17:07:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:07:14-05:00</t>
+    <t>2025-08-05T17:18:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:18:07-05:00</t>
+    <t>2025-08-06T08:42:49-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T08:42:49-05:00</t>
+    <t>2025-08-06T11:48:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T11:48:33-05:00</t>
+    <t>2025-08-06T12:28:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T12:28:55-05:00</t>
+    <t>2025-08-07T11:40:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsDevice.xlsx
+++ b/temp/pages/StructureDefinition-rtlsDevice.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T11:40:07-05:00</t>
+    <t>2025-08-07T11:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
